--- a/Insta.xlsx
+++ b/Insta.xlsx
@@ -7,76 +7,55 @@
     <workbookView windowWidth="22488" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="28-29 tháng 8" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Bước</t>
-  </si>
-  <si>
-    <t>Nội dung</t>
-  </si>
-  <si>
-    <t>Chú thích</t>
-  </si>
-  <si>
-    <t>Bước 1</t>
-  </si>
-  <si>
-    <t>Tạo LD: ngôn ngữ, vị trí US, múi giờ</t>
-  </si>
-  <si>
-    <t>Để tạo chuẩn, fake ip máy tính trước, sau đó lên trang chủ tải, sẽ ra bản LD US ko phải LD VN, sau đó mới fake thông tin, imei sdt, vv</t>
-  </si>
-  <si>
-    <t>Bước 2</t>
-  </si>
-  <si>
-    <t>Cài ứng dụng thông qua APK: Proxy, Insta</t>
-  </si>
-  <si>
-    <t>Trích xuất apk ra một thư mục bên ngoài máy tính, mỗi lần tạo chỉ cần cài apk từ đây là được.</t>
-  </si>
-  <si>
-    <t>Bước 3</t>
-  </si>
-  <si>
-    <t>Tìm key, tải toàn bộ key đó về</t>
-  </si>
-  <si>
-    <t>100-1m fl, hạn chế các kênh có nội dung xuát hiện nhiều, đánh bản quyền mạnh như bóng đá, thể thao,..</t>
-  </si>
-  <si>
-    <t>Bước 4</t>
-  </si>
-  <si>
-    <t>Login acc (3 acc trên 1 LD)</t>
-  </si>
-  <si>
-    <t>Bước 5</t>
-  </si>
-  <si>
-    <t>Ngâm + đổi tên + tương tác</t>
-  </si>
-  <si>
-    <t>Mới Login ngâm 1 ngày, sau đó tương tác theo key đã chọn trong 1 ngày, sau đó đổi tên, up avt, tiếp tục tương tác trong 1 ngày nữa. Vị trí đặt ở US hoặc các nước EU. cố gắng 1 acc đặt 1 vị trí giống nhau. Ví dụ Newyork,..</t>
-  </si>
-  <si>
-    <t>Bước 6</t>
-  </si>
-  <si>
-    <t>Đăng video, 3 tiếng 1 video, ngày 3-5 video. gắn vị trí và content.</t>
-  </si>
-  <si>
-    <t>Bước này lặp lại ngày qua ngày, nếu 0 view quá 2 ngày thì bỏ key</t>
-  </si>
-  <si>
-    <t>ngày up 5-10 acc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Plan </t>
+  </si>
+  <si>
+    <t>Lặp lại mỗi 2 ngày</t>
+  </si>
+  <si>
+    <t>Tinh trạng</t>
+  </si>
+  <si>
+    <t>Ngày 1</t>
+  </si>
+  <si>
+    <t>Tạo 6 giả lập</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Login mỗi giả lập 3 nick, giả lập cuối 4 nick(tổng 20 nick)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Tìm 20 key</t>
+  </si>
+  <si>
+    <t>Tương tác(tương tác đến khi nào hiện ra giống key 
+muốn đăng-30p 1 nick, cách tương tác là lướt, khoảng 
+10 video thì tim 1 và comment 1, lướt từ 10 - 60s một video)</t>
+  </si>
+  <si>
+    <t>Ngày 2</t>
+  </si>
+  <si>
+    <t>Tương tác tiếp</t>
+  </si>
+  <si>
+    <t>Up bài(3 tiếng 1 bài, 1 nick up 3-5 bài, tương tác
+ vài phút xong up, up xong tương tác vài phút)</t>
   </si>
 </sst>
 </file>
@@ -106,6 +85,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -114,6 +100,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +122,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,47 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,37 +200,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,31 +230,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,162 +416,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -451,20 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +460,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,6 +480,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -539,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,139 +565,148 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,17 +1027,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="56.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="108.222222222222" customWidth="1"/>
+    <col min="2" max="2" width="50.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="9.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1048,75 +1050,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" ht="43.2" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" ht="28.8" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="37" customHeight="1" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
